--- a/ins_generate/EVERYuINS/微指令.xlsx
+++ b/ins_generate/EVERYuINS/微指令.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quartus\quartus\final_design\ins_generate\uINS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\大二下\计组课设\计组课设\final_design\ins_generate\EVERYuINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD6183F-3F34-4135-B809-7A513537832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A4D3F-031B-44FE-99B7-C1EE7ABF16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>uIR15</t>
   </si>
@@ -102,33 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ALU-A(zero/Regs/PC/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移位寄存器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择打入的寄存器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +263,14 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ri+1-&gt;Ri+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU-A(zero/Regs//PC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,8 +308,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +328,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,22 +349,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,7 +675,8 @@
     <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="4"/>
+    <col min="6" max="8" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
     <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,13 +693,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -712,70 +731,71 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -783,31 +803,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -815,94 +835,97 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="7"/>
+      <c r="F5" s="5">
         <v>2</v>
       </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4">
+        <v>54</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F9" s="4">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F10" s="4">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -916,16 +939,16 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11">
@@ -955,7 +978,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -969,13 +992,13 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12">
@@ -1008,7 +1031,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1022,13 +1045,13 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13">
@@ -1040,10 +1063,10 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13">
@@ -1061,7 +1084,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1075,13 +1098,13 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14">
@@ -1114,7 +1137,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1128,13 +1151,13 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>1</v>
       </c>
       <c r="I15">
@@ -1155,19 +1178,19 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1181,13 +1204,13 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="I16">
@@ -1208,19 +1231,19 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1234,13 +1257,13 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="I17">
@@ -1273,7 +1296,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1287,13 +1310,13 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
         <v>0</v>
       </c>
       <c r="I18">
@@ -1326,27 +1349,27 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>1</v>
       </c>
       <c r="I19">
@@ -1379,7 +1402,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1393,13 +1416,13 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>1</v>
       </c>
       <c r="I20">
@@ -1417,7 +1440,7 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="O20">
@@ -1432,7 +1455,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1446,13 +1469,13 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21">
@@ -1485,7 +1508,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1499,13 +1522,13 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>0</v>
       </c>
       <c r="I22">
@@ -1514,7 +1537,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>1</v>
       </c>
       <c r="L22">
@@ -1538,7 +1561,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1552,13 +1575,13 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23">
@@ -1591,30 +1614,30 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24">
@@ -1644,7 +1667,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1658,13 +1681,13 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="I25">
@@ -1676,10 +1699,10 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>1</v>
       </c>
       <c r="N25">
@@ -1694,6 +1717,73 @@
       <c r="Q25">
         <v>0</v>
       </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ins_generate/EVERYuINS/微指令.xlsx
+++ b/ins_generate/EVERYuINS/微指令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\大二下\计组课设\计组课设\final_design\ins_generate\EVERYuINS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\作业人\机组课设\model_machine\ins_generate\EVERYuINS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A4D3F-031B-44FE-99B7-C1EE7ABF16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFD360B-3E51-4A56-BAFB-C977F1A6A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,20 +667,20 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="3"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -852,13 +852,13 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F7" s="5">
         <v>4</v>
       </c>
@@ -890,7 +890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F8" s="5">
         <v>5</v>
       </c>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F9" s="5">
         <v>6</v>
       </c>
@@ -912,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F10" s="5">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1135,63 +1135,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1782,7 +1782,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P31" s="3"/>
     </row>
   </sheetData>
